--- a/ldaresults_sorted_curatedafg_100_1.xlsx
+++ b/ldaresults_sorted_curatedafg_100_1.xlsx
@@ -400,7 +400,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="6">
@@ -408,7 +408,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="7">
@@ -448,7 +448,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="12">
@@ -504,7 +504,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="19">
@@ -536,7 +536,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="23">
@@ -560,7 +560,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="26">
@@ -600,7 +600,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="31">
@@ -608,7 +608,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="32">
@@ -632,7 +632,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="35">
@@ -664,7 +664,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="39">
@@ -672,7 +672,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="40">
@@ -712,7 +712,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="45">
@@ -736,7 +736,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="48">
@@ -744,7 +744,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="49">
@@ -760,7 +760,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="51">
@@ -768,7 +768,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="52">
@@ -784,7 +784,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="54">
@@ -792,7 +792,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="55">
@@ -800,7 +800,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="56">
@@ -808,7 +808,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="57">
@@ -816,7 +816,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="58">
@@ -832,7 +832,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="60">
@@ -864,7 +864,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="64">
@@ -872,7 +872,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="65">
@@ -880,7 +880,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="66">
@@ -896,7 +896,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="68">
@@ -912,7 +912,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="70">
@@ -936,7 +936,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="73">
@@ -944,7 +944,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="74">
@@ -952,7 +952,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="75">
@@ -960,7 +960,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="76">
@@ -968,7 +968,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="77">
@@ -984,7 +984,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="79">
@@ -1000,7 +1000,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="81">
@@ -1008,7 +1008,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="82">
@@ -1032,7 +1032,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="85">
@@ -1040,7 +1040,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="86">
@@ -1048,7 +1048,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="87">
@@ -1056,7 +1056,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="88">
@@ -1064,7 +1064,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="89">
@@ -1072,7 +1072,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="90">
@@ -1080,7 +1080,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="91">
@@ -1112,7 +1112,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="95">
@@ -1128,7 +1128,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="97">
@@ -1136,7 +1136,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="98">
@@ -1144,7 +1144,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="99">
@@ -1160,7 +1160,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="101">
@@ -1168,7 +1168,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
   </sheetData>
